--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 2 (39, 17, 23, 27, 8)/MDD 1 (43, 3, 19, 7, 1)/ANN_128nodes_Uniform0.05Virtual_Control(39, 17, 23, 27, 8)_MDD(43, 3, 19, 7, 1)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 2 (39, 17, 23, 27, 8)/MDD 1 (43, 3, 19, 7, 1)/ANN_128nodes_Uniform0.05Virtual_Control(39, 17, 23, 27, 8)_MDD(43, 3, 19, 7, 1)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>2.197811778001876E-09</v>
+        <v>1.982372174814036E-15</v>
       </c>
       <c r="E3">
-        <v>2.197811778001876E-09</v>
+        <v>1.982372174814036E-15</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.0003984903450710066</v>
+        <v>0.0003687707289405372</v>
       </c>
       <c r="E4">
-        <v>0.0003984903450710066</v>
+        <v>0.0003687707289405372</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1.838960142133604E-31</v>
+        <v>5.713336679434647E-24</v>
       </c>
       <c r="E5">
-        <v>1.838960142133604E-31</v>
+        <v>5.713336679434647E-24</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>6.803594854296566E-45</v>
+        <v>4.259248333022048E-67</v>
       </c>
       <c r="E6">
-        <v>6.803594854296566E-45</v>
+        <v>4.259248333022048E-67</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9959517193060724</v>
+        <v>0.966073947927751</v>
       </c>
       <c r="E8">
-        <v>0.004048280693927597</v>
+        <v>0.03392605207224897</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9999999998993039</v>
+        <v>0.9999999908846561</v>
       </c>
       <c r="E9">
-        <v>1.006961181104771E-10</v>
+        <v>9.115343924115393E-09</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -582,13 +582,13 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>8.881784197001252E-16</v>
       </c>
       <c r="F11">
-        <v>7.175743103027344</v>
+        <v>4.699339389801025</v>
       </c>
       <c r="G11">
         <v>0.9</v>
